--- a/Data/test_main_CEMIPrevias.xlsx
+++ b/Data/test_main_CEMIPrevias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56367\Documents\GitHub\PyFlow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpern\Documents\GitHub\PyFlow\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02531DE-E043-4F2F-8B46-009D5BADCE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34079FD4-C653-41F2-A6FC-CD11A8AEE156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19103" yWindow="-98" windowWidth="19395" windowHeight="11475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5172" yWindow="3360" windowWidth="23040" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="1" r:id="rId1"/>
@@ -89,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,7 +375,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1140,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A91"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1897,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA7AF78-57C2-4EE6-A98C-79BC591907E4}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A91"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77:I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2435,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>90</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>40</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>9</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>57</v>
       </c>
@@ -2475,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>26</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>42</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>59</v>
       </c>
@@ -2507,15 +2508,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>31</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>34</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>21</v>
       </c>
@@ -2531,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>10</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>12</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2660,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98309FF7-F527-4AAF-B307-4745374FC991}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/test_main_CEMIPrevias.xlsx
+++ b/Data/test_main_CEMIPrevias.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpern\Documents\GitHub\PyFlow\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34079FD4-C653-41F2-A6FC-CD11A8AEE156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A3258D-A1F4-4BAD-950E-78371B817CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="3360" windowWidth="23040" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="1" r:id="rId1"/>
     <sheet name="case2" sheetId="2" r:id="rId2"/>
     <sheet name="case3" sheetId="3" r:id="rId3"/>
     <sheet name="case4" sheetId="4" r:id="rId4"/>
+    <sheet name="case5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>priorities</t>
   </si>
@@ -1900,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA7AF78-57C2-4EE6-A98C-79BC591907E4}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="I77" sqref="I77:I80"/>
     </sheetView>
   </sheetViews>
@@ -2663,7 +2664,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3417,4 +3418,765 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB62E85-0368-4C55-A79F-70A02B8AF378}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>19678.999999999902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>56</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>60</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>78</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>